--- a/inst/VarCompDiscrepancy/comparison.xlsx
+++ b/inst/VarCompDiscrepancy/comparison.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3360" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="35100" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OldCode" sheetId="1" r:id="rId1"/>
+    <sheet name="NewCode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="23">
   <si>
     <t>varcomp</t>
   </si>
@@ -67,12 +68,36 @@
   </si>
   <si>
     <t>Bootstrap, 1000</t>
+  </si>
+  <si>
+    <t>Rjafroc - DBM (new  code)</t>
+  </si>
+  <si>
+    <t>Var(C)</t>
+  </si>
+  <si>
+    <t>Var(T*C)</t>
+  </si>
+  <si>
+    <t>Var(R*C)</t>
+  </si>
+  <si>
+    <t>Var(T*R*C) + Var(Error)</t>
+  </si>
+  <si>
+    <t>Pseudovalue varComp</t>
+  </si>
+  <si>
+    <t>Rjafroc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -80,17 +105,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -107,6 +121,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -140,78 +167,89 @@
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -264,6 +302,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -589,411 +635,1127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="9" width="10.83203125" style="3"/>
-    <col min="11" max="15" width="10.83203125" style="3"/>
+    <col min="1" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="14" width="10.83203125" style="4"/>
+    <col min="15" max="16" width="10.83203125" style="8"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="B2" s="4" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="1" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>1.788411E-3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
         <v>1.7878099999999999E-3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.8291080000000001E-3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.8255648000000001E-3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>-8.1479290000000004E-4</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.8291099999999999E-3</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1.8291080000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1.8787200000000001E-4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1.98801E-4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-2.400991E-4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-2.140399E-4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-3.0086510000000002E-3</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-2.4010000000000001E-4</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5">
+        <v>-2.400991E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.1703100000000001E-4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.3754500000000002E-4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.3754459999999999E-4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.2727439999999998E-4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2.4693739999999999E-3</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3.3754E-4</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3.3754459999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.05942E-4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.2121599999999999E-4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.2121559999999999E-4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.0740560000000001E-4</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-5.0452660000000003E-4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2.2121E-4</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2.2121559999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.5616E-4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.7607300000000001E-4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.1737070000000001E-4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.035571E-4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-8.4875020000000004E-5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2.1736999999999999E-4</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2.1737070000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.7726800000000001E-4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.0407199999999997E-4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8.0407229999999996E-4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7.6774639999999995E-4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5.7006089999999997E-3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="5">
+        <v>8.0407000000000005E-4</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5">
+        <v>8.0407229999999996E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.8291099999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.3474029999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-2.4010000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.6895000000000002E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.4034839999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9.2536380000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="14" width="10.83203125" style="4"/>
+    <col min="15" max="16" width="10.83203125" style="8"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.788411E-3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.7878099999999999E-3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
         <v>1.8291080000000001E-3</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
         <v>1.8255648000000001E-3</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
         <v>-8.1479290000000004E-4</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5">
         <v>1.8291099999999999E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1.8291080000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>-1.8787200000000001E-4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
         <v>-1.98801E-4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-2.400991E-4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-2.140399E-4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-3.0086510000000002E-3</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-2.4010000000000001E-4</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="14">
+        <v>-2.400991E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.1703100000000001E-4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.3754500000000002E-4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.3754459999999999E-4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.2727439999999998E-4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2.4693739999999999E-3</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3.3754E-4</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="14">
+        <v>3.3754459999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.05942E-4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.2121599999999999E-4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.2121559999999999E-4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.0740560000000001E-4</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-5.0452660000000003E-4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2.2121E-4</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="14">
+        <v>2.2121559999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.5616E-4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.7607300000000001E-4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.1737070000000001E-4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.035571E-4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-8.4875020000000004E-5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2.1736999999999999E-4</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="14">
+        <v>2.1737070000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.7726800000000001E-4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.0407199999999997E-4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8.0407229999999996E-4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7.6774639999999995E-4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5.7006089999999997E-3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="5">
+        <v>8.0407000000000005E-4</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="14">
+        <v>8.0407229999999996E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.8291099999999999E-3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.8291080000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.3474029999999997E-2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.3474140000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-2.4010000000000001E-4</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
         <v>-2.400991E-4</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>-2.140399E-4</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="9">
-        <v>-3.0086510000000002E-3</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5">
-        <v>-2.4010000000000001E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.1703100000000001E-4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3.3754500000000002E-4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
-        <v>3.3754459999999999E-4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3.2727439999999998E-4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2.4693739999999999E-3</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="5">
-        <v>3.3754E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.05942E-4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.2121599999999999E-4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2.2121559999999999E-4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2.0740560000000001E-4</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="9">
-        <v>-5.0452660000000003E-4</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2.2121E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.5616E-4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1.7607300000000001E-4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2.1737070000000001E-4</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2.035571E-4</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="9">
-        <v>-8.4875020000000004E-5</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2.1736999999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7.7726800000000001E-4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8.0407199999999997E-4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5">
-        <v>8.0407229999999996E-4</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7.6774639999999995E-4</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="9">
-        <v>5.7006089999999997E-3</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="5">
-        <v>8.0407000000000005E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="8"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.6895000000000002E-4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7.6898720000000002E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.4034839999999998E-2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.403479E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9.2536380000000001E-2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9.2536560000000004E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="16">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
